--- a/Crime.xlsx
+++ b/Crime.xlsx
@@ -3,13 +3,12 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="1" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="16220" windowWidth="28800" xWindow="0" yWindow="460"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="16220" windowWidth="28800" xWindow="0" yWindow="500"/>
   </bookViews>
   <sheets>
     <sheet name="example" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="test" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="1618 lake sims parkway oc" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="451 clear blue way mcdono" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="451 clear blue way mcdono" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -1001,7 +1000,7 @@
   </sheetPr>
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -1462,487 +1461,6 @@
   </sheetPr>
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="8" width="29.5"/>
-    <col customWidth="1" max="2" min="2" style="8" width="114.6640625"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="8" width="68.5"/>
-    <col customWidth="1" max="4" min="4" style="8" width="17.5"/>
-    <col customWidth="1" max="5" min="5" style="8" width="24.6640625"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" style="8" width="11.6640625"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Onboardnavigator </t>
-        </is>
-      </c>
-      <c r="B1" s="21" t="inlineStr">
-        <is>
-          <t>Links</t>
-        </is>
-      </c>
-      <c r="C1" s="21" t="inlineStr">
-        <is>
-          <t>comments</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Total personal </t>
-        </is>
-      </c>
-      <c r="B2" s="23" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="C2" s="24" t="inlineStr">
-        <is>
-          <t>http://www.onboardnavigator.com/webcontent/OBWC_Search.aspx?&amp;AID=102</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Total property </t>
-        </is>
-      </c>
-      <c r="B3" s="23" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="C3" s="24" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Total overall </t>
-        </is>
-      </c>
-      <c r="B4" s="23" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="C4" s="24" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="22" t="inlineStr">
-        <is>
-          <t>Year</t>
-        </is>
-      </c>
-      <c r="B5" s="23" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-      <c r="C5" s="23" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">City Data </t>
-        </is>
-      </c>
-      <c r="B6" s="21" t="inlineStr">
-        <is>
-          <t>Links</t>
-        </is>
-      </c>
-      <c r="C6" s="21" t="inlineStr">
-        <is>
-          <t>comments</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crime Index city </t>
-        </is>
-      </c>
-      <c r="B7" s="23" t="inlineStr">
-        <is>
-          <t>238.8</t>
-        </is>
-      </c>
-      <c r="C7" s="24" t="inlineStr">
-        <is>
-          <t>https://www.city-data.com/city/McDonough-Georgia.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">US avarage </t>
-        </is>
-      </c>
-      <c r="B8" s="23" t="inlineStr">
-        <is>
-          <t>City-Data.com crime index (higher means more crime, U.S. average = 274.0)</t>
-        </is>
-      </c>
-      <c r="C8" s="23" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Graph link  </t>
-        </is>
-      </c>
-      <c r="B9" s="23" t="inlineStr">
-        <is>
-          <t>http://www.city-data.com/city/Ocoee-Florida.html</t>
-        </is>
-      </c>
-      <c r="C9" s="23" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="22" t="inlineStr">
-        <is>
-          <t>total info</t>
-        </is>
-      </c>
-      <c r="B10" s="23" t="inlineStr">
-        <is>
-          <t>According to our research of Florida and other state lists, there were 11 registered sex offenders living in Ocoee, Florida as of November 28, 2020.
-The ratio of all residents to sex offenders in Ocoee is 3,938 to 1.
-The ratio of registered sex offenders to all residents in this city is much lower than the state average.</t>
-        </is>
-      </c>
-      <c r="C10" s="23" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Home Facts </t>
-        </is>
-      </c>
-      <c r="B11" s="21" t="inlineStr">
-        <is>
-          <t>Links</t>
-        </is>
-      </c>
-      <c r="C11" s="21" t="inlineStr">
-        <is>
-          <t>comments</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="22" t="inlineStr">
-        <is>
-          <t>Score Overall</t>
-        </is>
-      </c>
-      <c r="B12" s="23" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="C12" s="24" t="inlineStr">
-        <is>
-          <t>https://www.homefacts.com/</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="22" t="inlineStr">
-        <is>
-          <t>Score Violent crime</t>
-        </is>
-      </c>
-      <c r="B13" s="23" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="C13" s="24" t="inlineStr">
-        <is>
-          <t>https://www.homefacts.com/crime/Georgia/Henry-County/Mcdonough.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="22" t="inlineStr">
-        <is>
-          <t>Score Property crime</t>
-        </is>
-      </c>
-      <c r="B14" s="23" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="C14" s="23" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="22" t="inlineStr">
-        <is>
-          <t>Offender first</t>
-        </is>
-      </c>
-      <c r="B15" s="23" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="C15" s="23" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="22" t="inlineStr">
-        <is>
-          <t>Offender second</t>
-        </is>
-      </c>
-      <c r="B16" s="23" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="C16" s="23" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="22" t="inlineStr">
-        <is>
-          <t>Offender third</t>
-        </is>
-      </c>
-      <c r="B17" s="23" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="C17" s="23" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="22" t="inlineStr">
-        <is>
-          <t>Year</t>
-        </is>
-      </c>
-      <c r="B18" s="23" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-      <c r="C18" s="23" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Neighborhoodscout </t>
-        </is>
-      </c>
-      <c r="B19" s="21" t="inlineStr">
-        <is>
-          <t>Links</t>
-        </is>
-      </c>
-      <c r="C19" s="21" t="inlineStr">
-        <is>
-          <t>comments</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Graph link  </t>
-        </is>
-      </c>
-      <c r="B20" s="23" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="C20" s="24" t="inlineStr">
-        <is>
-          <t>https://www.neighborhoodscout.com/</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="23" t="inlineStr">
-        <is>
-          <t>List of safe areas</t>
-        </is>
-      </c>
-      <c r="B21" s="23" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="C21" s="24" t="inlineStr">
-        <is>
-          <t>https://www.neighborhoodscout.com/ga/mcdonough/crime</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bestplaces </t>
-        </is>
-      </c>
-      <c r="B22" s="21" t="inlineStr">
-        <is>
-          <t>Links</t>
-        </is>
-      </c>
-      <c r="C22" s="21" t="inlineStr">
-        <is>
-          <t>comments</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Violent crime &amp; US average </t>
-        </is>
-      </c>
-      <c r="B23" s="23" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="C23" s="24" t="inlineStr">
-        <is>
-          <t>https://www.bestplaces.net/crime/</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Property crime &amp; US average </t>
-        </is>
-      </c>
-      <c r="B24" s="23" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="C24" s="24" t="inlineStr">
-        <is>
-          <t>https://www.bestplaces.net/city/georgia/mcdonough</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="22" t="inlineStr">
-        <is>
-          <t>Photos and Maps of the city - link</t>
-        </is>
-      </c>
-      <c r="B25" s="23" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="C25" s="24" t="inlineStr">
-        <is>
-          <t>https://www.bestplaces.net/crime/city/georgia/mcdonough</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="25" t="inlineStr">
-        <is>
-          <t>Info</t>
-        </is>
-      </c>
-      <c r="B26" s="21" t="inlineStr">
-        <is>
-          <t>Links</t>
-        </is>
-      </c>
-      <c r="C26" s="21" t="inlineStr">
-        <is>
-          <t>comments</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="26" t="inlineStr">
-        <is>
-          <t>Street</t>
-        </is>
-      </c>
-      <c r="B27" s="23" t="inlineStr">
-        <is>
-          <t>1618 Lake Sims Parkway</t>
-        </is>
-      </c>
-      <c r="C27" s="23" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="26" t="inlineStr">
-        <is>
-          <t>City</t>
-        </is>
-      </c>
-      <c r="B28" s="23" t="inlineStr">
-        <is>
-          <t>Ocoee</t>
-        </is>
-      </c>
-      <c r="C28" s="23" t="n"/>
-    </row>
-    <row customHeight="1" ht="17" r="29" s="8">
-      <c r="A29" s="23" t="inlineStr">
-        <is>
-          <t>State</t>
-        </is>
-      </c>
-      <c r="B29" s="23" t="inlineStr">
-        <is>
-          <t>Florida</t>
-        </is>
-      </c>
-      <c r="C29" s="23" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="20" t="n"/>
-      <c r="B30" s="20" t="n"/>
-      <c r="C30" s="20" t="n"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1"/>
-    <hyperlink ref="C12" r:id="rId2"/>
-    <hyperlink ref="C13" r:id="rId3"/>
-    <hyperlink ref="C20" r:id="rId4"/>
-    <hyperlink ref="C21" r:id="rId5"/>
-    <hyperlink ref="C23" r:id="rId6"/>
-    <hyperlink ref="C24" r:id="rId7"/>
-    <hyperlink ref="C25" r:id="rId8"/>
-  </hyperlinks>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C30"/>
-  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
@@ -2098,8 +1616,8 @@
       </c>
       <c r="B10" s="23" t="inlineStr">
         <is>
-          <t>According to our research of Georgia and other state lists, there were 96 registered sex offenders living in McDonough, Georgia as of November 28, 2020.
-The ratio of all residents to sex offenders in McDonough is 246 to 1.</t>
+          <t>According to our research of Georgia and other state lists, there were 97 registered sex offenders living in McDonough, Georgia as of December 22, 2020.
+The ratio of all residents to sex offenders in McDonough is 243 to 1.</t>
         </is>
       </c>
       <c r="C10" s="23" t="n"/>
@@ -2296,7 +1814,7 @@
       </c>
       <c r="B23" s="23" t="inlineStr">
         <is>
-          <t>McDonough violent crime is 17.7. (The US average is 22.7)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="C23" s="24" t="inlineStr">
@@ -2313,7 +1831,7 @@
       </c>
       <c r="B24" s="23" t="inlineStr">
         <is>
-          <t>McDonough property crime is 48.1. (The US average is 35.4)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="C24" s="24" t="inlineStr">
@@ -2330,7 +1848,7 @@
       </c>
       <c r="B25" s="23" t="inlineStr">
         <is>
-          <t>https://www.bestplaces.net/city/img.aspx?p=1348624_GA_McDonough</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="C25" s="24" t="inlineStr">
